--- a/4. OutliersMultivariate/views/outlierscases.xlsx
+++ b/4. OutliersMultivariate/views/outlierscases.xlsx
@@ -28,16 +28,16 @@
     <t>total_deaths</t>
   </si>
   <si>
-    <t>total_cases_per_million</t>
-  </si>
-  <si>
-    <t>total_deaths_per_million</t>
+    <t>total_cases_pm</t>
+  </si>
+  <si>
+    <t>total_deaths_pm</t>
   </si>
   <si>
     <t>population</t>
   </si>
   <si>
-    <t>population_density</t>
+    <t>pop_density</t>
   </si>
   <si>
     <t>median_age</t>
@@ -46,7 +46,7 @@
     <t>gdp_per_capita</t>
   </si>
   <si>
-    <t>hospital_beds_per_100k</t>
+    <t>hosp_beds</t>
   </si>
   <si>
     <t>varname</t>
